--- a/code/experiments/e_poch_optimisation.xlsx
+++ b/code/experiments/e_poch_optimisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hons-Project\code\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B948281-3F59-463B-82F4-CEF44C0F057B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D662D7E2-8BC3-4679-A774-C894730276ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -281,34 +281,10 @@
     <t>Model Types</t>
   </si>
   <si>
-    <t>Trend t+1</t>
-  </si>
-  <si>
-    <t>Trend t+2</t>
-  </si>
-  <si>
-    <t>Trend t+3</t>
-  </si>
-  <si>
-    <t>APRE t+1</t>
-  </si>
-  <si>
-    <t>APRE t+2</t>
-  </si>
-  <si>
-    <t>APRE t+3</t>
-  </si>
-  <si>
     <t>Average Trend</t>
   </si>
   <si>
     <t>Average APRE</t>
-  </si>
-  <si>
-    <t>Trend Average</t>
-  </si>
-  <si>
-    <t>APRE Average</t>
   </si>
   <si>
     <t>Sum of Training Time</t>
@@ -320,7 +296,31 @@
     <t>hours</t>
   </si>
   <si>
-    <t>3-prior history, 3-step forecasting, "price" univariate models segmented by number of epochs for AMAZON</t>
+    <t>TCP t+1</t>
+  </si>
+  <si>
+    <t>TCP t+2</t>
+  </si>
+  <si>
+    <t>TCP t+3</t>
+  </si>
+  <si>
+    <t>TCP Average</t>
+  </si>
+  <si>
+    <t>MAPE t+1</t>
+  </si>
+  <si>
+    <t>MAPE t+2</t>
+  </si>
+  <si>
+    <t>MAPE t+3</t>
+  </si>
+  <si>
+    <t>MAPE Average</t>
+  </si>
+  <si>
+    <t>3-prior history 3-step forecasting "price" univariate models segmented by number of epochs for AMAZON</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,975 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="189">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -9234,7 +10202,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Model Types">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Model Types">
   <location ref="A3:I59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
@@ -9490,23 +10458,23 @@
     </i>
   </colItems>
   <dataFields count="8">
-    <dataField name="Trend t+1" fld="14" subtotal="average" baseField="1" baseItem="0"/>
-    <dataField name="Trend t+2" fld="17" subtotal="average" baseField="1" baseItem="0"/>
-    <dataField name="Trend t+3" fld="20" subtotal="average" baseField="1" baseItem="0"/>
-    <dataField name="APRE t+1" fld="15" subtotal="average" baseField="1" baseItem="0"/>
-    <dataField name="APRE t+2" fld="18" subtotal="average" baseField="1" baseItem="0"/>
-    <dataField name="APRE t+3" fld="21" subtotal="average" baseField="1" baseItem="0"/>
-    <dataField name="Trend Average" fld="23" subtotal="average" baseField="1" baseItem="0"/>
-    <dataField name="APRE Average" fld="24" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="TCP t+1" fld="14" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="TCP t+2" fld="17" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="TCP t+3" fld="20" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="MAPE t+1" fld="15" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="MAPE t+2" fld="18" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="MAPE t+3" fld="21" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="TCP Average" fld="23" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="MAPE Average" fld="24" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="20">
+    <format dxfId="188">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="187">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="186">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="8">
@@ -9522,10 +10490,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="185">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="184">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9537,7 +10505,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="183">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9549,7 +10517,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="182">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9561,7 +10529,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="181">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9573,7 +10541,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="180">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -9589,7 +10557,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="179">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -9605,7 +10573,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="178">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9617,7 +10585,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="177">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9629,7 +10597,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="176">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9641,7 +10609,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="175">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9653,7 +10621,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="174">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -9669,7 +10637,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="173">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9681,7 +10649,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="172">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9693,7 +10661,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="171">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -9709,7 +10677,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="170">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9721,7 +10689,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="169">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -9733,7 +10701,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="168">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -9763,7 +10731,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
@@ -10113,16 +11081,17 @@
   <dimension ref="A2:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I59"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="5" customWidth="1"/>
+    <col min="5" max="7" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -10143,28 +11112,28 @@
         <v>81</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -11815,7 +12784,7 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -11823,7 +12792,7 @@
         <v>682.13492904901409</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -11832,7 +12801,7 @@
         <v>11.368915484150234</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -11921,10 +12890,10 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Y1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
